--- a/output/05.HC/stats_compo_clust_HC_essentials_only.xlsx
+++ b/output/05.HC/stats_compo_clust_HC_essentials_only.xlsx
@@ -47,12 +47,12 @@
     <t xml:space="preserve">Mn</t>
   </si>
   <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se</t>
   </si>
   <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ni</t>
   </si>
   <si>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">Cd</t>
   </si>
   <si>
+    <t xml:space="preserve">Pb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pb</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -518,10 +518,10 @@
         <v>1.946</v>
       </c>
       <c r="L2" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.752</v>
       </c>
       <c r="N2" t="n">
         <v>1.16</v>
@@ -536,10 +536,10 @@
         <v>0.585</v>
       </c>
       <c r="R2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.048</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.083</v>
       </c>
     </row>
     <row r="3">
@@ -577,10 +577,10 @@
         <v>1.708</v>
       </c>
       <c r="L3" t="n">
+        <v>2.658</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.661</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.658</v>
       </c>
       <c r="N3" t="n">
         <v>1.157</v>
@@ -595,10 +595,10 @@
         <v>0.533</v>
       </c>
       <c r="R3" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.02</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.079</v>
       </c>
     </row>
     <row r="4">
@@ -636,10 +636,10 @@
         <v>0.754</v>
       </c>
       <c r="L4" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.624</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.922</v>
       </c>
       <c r="N4" t="n">
         <v>0.173</v>
@@ -654,10 +654,10 @@
         <v>0.314</v>
       </c>
       <c r="R4" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.077</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.034</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         <v>3.598</v>
       </c>
       <c r="L5" t="n">
+        <v>10.227</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.232</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10.227</v>
       </c>
       <c r="N5" t="n">
         <v>1.118</v>
@@ -713,10 +713,10 @@
         <v>0.804</v>
       </c>
       <c r="R5" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.026</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.033</v>
       </c>
     </row>
     <row r="6">
@@ -754,10 +754,10 @@
         <v>2.464</v>
       </c>
       <c r="L6" t="n">
+        <v>9.607</v>
+      </c>
+      <c r="M6" t="n">
         <v>3.405</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9.607</v>
       </c>
       <c r="N6" t="n">
         <v>1.119</v>
@@ -772,10 +772,10 @@
         <v>0.764</v>
       </c>
       <c r="R6" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.018</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.024</v>
       </c>
     </row>
     <row r="7">
@@ -813,10 +813,10 @@
         <v>3.259</v>
       </c>
       <c r="L7" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.587</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.464</v>
       </c>
       <c r="N7" t="n">
         <v>0.209</v>
@@ -831,10 +831,10 @@
         <v>0.488</v>
       </c>
       <c r="R7" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.028</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.022</v>
       </c>
     </row>
     <row r="8">
@@ -872,10 +872,10 @@
         <v>1.962</v>
       </c>
       <c r="L8" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M8" t="n">
         <v>2.516</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.64</v>
       </c>
       <c r="N8" t="n">
         <v>0.683</v>
@@ -890,10 +890,10 @@
         <v>1.099</v>
       </c>
       <c r="R8" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.095</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.078</v>
       </c>
     </row>
     <row r="9">
@@ -931,10 +931,10 @@
         <v>1.898</v>
       </c>
       <c r="L9" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="M9" t="n">
         <v>2.59</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.557</v>
       </c>
       <c r="N9" t="n">
         <v>0.631</v>
@@ -949,10 +949,10 @@
         <v>1.164</v>
       </c>
       <c r="R9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="S9" t="n">
         <v>0.076</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.055</v>
       </c>
     </row>
     <row r="10">
@@ -990,10 +990,10 @@
         <v>0.62</v>
       </c>
       <c r="L10" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.648</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.715</v>
       </c>
       <c r="N10" t="n">
         <v>0.105</v>
@@ -1008,10 +1008,10 @@
         <v>0.441</v>
       </c>
       <c r="R10" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.076</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.053</v>
       </c>
     </row>
     <row r="11">
@@ -1049,10 +1049,10 @@
         <v>3.422</v>
       </c>
       <c r="L11" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="M11" t="n">
         <v>2.604</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.718</v>
       </c>
       <c r="N11" t="n">
         <v>1.527</v>
@@ -1067,10 +1067,10 @@
         <v>0.385</v>
       </c>
       <c r="R11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.042</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.405</v>
       </c>
     </row>
     <row r="12">
@@ -1108,10 +1108,10 @@
         <v>3.236</v>
       </c>
       <c r="L12" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="M12" t="n">
         <v>2.619</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.735</v>
       </c>
       <c r="N12" t="n">
         <v>1.315</v>
@@ -1126,10 +1126,10 @@
         <v>0.374</v>
       </c>
       <c r="R12" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.036</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.222</v>
       </c>
     </row>
     <row r="13">
@@ -1167,10 +1167,10 @@
         <v>1.049</v>
       </c>
       <c r="L13" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.768</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.496</v>
       </c>
       <c r="N13" t="n">
         <v>1.059</v>
@@ -1185,10 +1185,10 @@
         <v>0.212</v>
       </c>
       <c r="R13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.03</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -1226,10 +1226,10 @@
         <v>2.728</v>
       </c>
       <c r="L14" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="M14" t="n">
         <v>2.789</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.394</v>
       </c>
       <c r="N14" t="n">
         <v>1.163</v>
@@ -1244,10 +1244,10 @@
         <v>0.674</v>
       </c>
       <c r="R14" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.049</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.155</v>
       </c>
     </row>
     <row r="15">
@@ -1285,10 +1285,10 @@
         <v>2.318</v>
       </c>
       <c r="L15" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="M15" t="n">
         <v>2.778</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.947</v>
       </c>
       <c r="N15" t="n">
         <v>1.086</v>
@@ -1303,10 +1303,10 @@
         <v>0.555</v>
       </c>
       <c r="R15" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="S15" t="n">
         <v>0.024</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.062</v>
       </c>
     </row>
     <row r="16">
@@ -1344,10 +1344,10 @@
         <v>1.837</v>
       </c>
       <c r="L16" t="n">
+        <v>3.761</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.684</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.761</v>
       </c>
       <c r="N16" t="n">
         <v>0.608</v>
@@ -1362,10 +1362,10 @@
         <v>0.428</v>
       </c>
       <c r="R16" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="S16" t="n">
         <v>0.06</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.292</v>
       </c>
     </row>
   </sheetData>
